--- a/data/trans_orig/P36BPD05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B81F5D4-1874-40E6-8722-807D3D8473CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E78EB0D-20D5-4626-982C-4ACC62976323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5FB6DC13-2F93-44E8-ADB7-B683F461A672}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5544214E-6948-425E-88D5-ED792F9BAEAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según el número de raciones de carnes rojas, hamburguesas, salchichas o embutidos que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>22,68%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>24,31%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -101,25 +104,28 @@
     <t>77,32%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>79,41%</t>
   </si>
   <si>
-    <t>75,69%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +137,55 @@
     <t>38,52%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>33,62%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>35,99%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>66,38%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>64,01%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,55 +194,55 @@
     <t>17,09%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,55 +251,55 @@
     <t>21,44%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,49 +308,49 @@
     <t>24,63%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>17,88%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>79,19%</t>
   </si>
   <si>
-    <t>82,12%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,49 +359,55 @@
     <t>11,32%</t>
   </si>
   <si>
-    <t>8,14%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>91,86%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -404,55 +416,55 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>25,83%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>79,18%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>74,17%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -461,109 +473,109 @@
     <t>63,7%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
   </si>
   <si>
     <t>59,02%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>40,98%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B9A14E-93AA-41FF-83DF-314ED72E5A8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC435C-14C1-4071-9338-57E524AAF4F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1135,16 +1147,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>261</v>
@@ -1153,13 +1165,13 @@
         <v>201272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>436</v>
@@ -1168,13 +1180,13 @@
         <v>220936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>697</v>
@@ -1183,13 +1195,13 @@
         <v>422207</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,13 +1216,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -1219,13 +1231,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -1234,18 +1246,18 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1257,13 +1269,13 @@
         <v>199530</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>234</v>
@@ -1272,13 +1284,13 @@
         <v>186208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>373</v>
@@ -1287,19 +1299,19 @@
         <v>385737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>242</v>
@@ -1308,13 +1320,13 @@
         <v>318404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>482</v>
@@ -1323,13 +1335,13 @@
         <v>367571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>724</v>
@@ -1338,13 +1350,13 @@
         <v>685977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,13 +1371,13 @@
         <v>517934</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
@@ -1374,13 +1386,13 @@
         <v>553779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1097</v>
@@ -1389,18 +1401,18 @@
         <v>1071714</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1412,13 +1424,13 @@
         <v>54685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -1427,13 +1439,13 @@
         <v>68024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -1442,19 +1454,19 @@
         <v>122708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>298</v>
@@ -1463,13 +1475,13 @@
         <v>265242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -1478,13 +1490,13 @@
         <v>300387</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>731</v>
@@ -1493,13 +1505,13 @@
         <v>565630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1526,13 @@
         <v>319927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>527</v>
@@ -1529,13 +1541,13 @@
         <v>368411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>884</v>
@@ -1544,18 +1556,18 @@
         <v>688338</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1567,13 +1579,13 @@
         <v>68575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -1582,13 +1594,13 @@
         <v>76070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -1597,19 +1609,19 @@
         <v>144645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>232</v>
@@ -1618,13 +1630,13 @@
         <v>251329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>515</v>
@@ -1633,13 +1645,13 @@
         <v>352044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>747</v>
@@ -1648,13 +1660,13 @@
         <v>603373</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,13 +1681,13 @@
         <v>319904</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>598</v>
@@ -1684,13 +1696,13 @@
         <v>428114</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>887</v>
@@ -1699,18 +1711,18 @@
         <v>748018</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1734,13 @@
         <v>48454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -1737,13 +1749,13 @@
         <v>40679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -1752,19 +1764,19 @@
         <v>89134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>210</v>
@@ -1773,13 +1785,13 @@
         <v>148294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>401</v>
@@ -1788,13 +1800,13 @@
         <v>190817</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>611</v>
@@ -1803,13 +1815,13 @@
         <v>339110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1836,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>491</v>
@@ -1839,13 +1851,13 @@
         <v>231496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>770</v>
@@ -1854,18 +1866,18 @@
         <v>428244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1889,13 @@
         <v>31328</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -1892,13 +1904,13 @@
         <v>26495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -1907,19 +1919,19 @@
         <v>57823</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>331</v>
@@ -1928,13 +1940,13 @@
         <v>245483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -1943,13 +1955,13 @@
         <v>248091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>752</v>
@@ -1958,13 +1970,13 @@
         <v>493574</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1991,13 @@
         <v>276811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
@@ -1994,13 +2006,13 @@
         <v>274586</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>829</v>
@@ -2009,18 +2021,18 @@
         <v>551397</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2044,13 @@
         <v>130475</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -2047,13 +2059,13 @@
         <v>238653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -2062,19 +2074,19 @@
         <v>369128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>482</v>
@@ -2083,13 +2095,13 @@
         <v>496202</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>806</v>
@@ -2098,13 +2110,13 @@
         <v>563578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1288</v>
@@ -2113,13 +2125,13 @@
         <v>1059780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2146,13 @@
         <v>626677</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>957</v>
@@ -2149,13 +2161,13 @@
         <v>802231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1555</v>
@@ -2164,18 +2176,18 @@
         <v>1428908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2199,13 @@
         <v>546740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>571</v>
@@ -2202,13 +2214,13 @@
         <v>471926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>1044</v>
@@ -2217,19 +2229,19 @@
         <v>1018665</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>288</v>
@@ -2238,13 +2250,13 @@
         <v>311606</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>490</v>
@@ -2253,13 +2265,13 @@
         <v>395758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>778</v>
@@ -2268,13 +2280,13 @@
         <v>707364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2301,13 @@
         <v>858346</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -2304,13 +2316,13 @@
         <v>867684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1822</v>
@@ -2319,13 +2331,13 @@
         <v>1726029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2354,13 @@
         <v>1138813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1363</v>
@@ -2357,13 +2369,13 @@
         <v>1158521</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>2385</v>
@@ -2372,34 +2384,34 @@
         <v>2297333</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2344</v>
       </c>
       <c r="D29" s="7">
-        <v>2237832</v>
+        <v>2237833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>3984</v>
@@ -2408,13 +2420,13 @@
         <v>2639182</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6328</v>
@@ -2423,13 +2435,13 @@
         <v>4877015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,16 +2453,16 @@
         <v>3366</v>
       </c>
       <c r="D30" s="7">
-        <v>3376645</v>
+        <v>3376646</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5347</v>
@@ -2459,13 +2471,13 @@
         <v>3797703</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8713</v>
@@ -2474,18 +2486,18 @@
         <v>7174348</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E78EB0D-20D5-4626-982C-4ACC62976323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9017A780-D1AC-460F-BFD4-612ABD70FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5544214E-6948-425E-88D5-ED792F9BAEAC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CB4E8B-C8AB-47FF-B7AE-A36B90728FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,511 +71,511 @@
     <t>Una o más de una ración</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>Menos de una al día</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>Menos de una al día</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC435C-14C1-4071-9338-57E524AAF4F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40A70CB-5158-4D32-9C94-ED49333CB938}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="7">
-        <v>59026</v>
+        <v>73986</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>102</v>
       </c>
       <c r="I4" s="7">
-        <v>50467</v>
+        <v>55783</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1141,7 @@
         <v>172</v>
       </c>
       <c r="N4" s="7">
-        <v>109493</v>
+        <v>129769</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1162,7 @@
         <v>261</v>
       </c>
       <c r="D5" s="7">
-        <v>201272</v>
+        <v>237457</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1177,7 @@
         <v>436</v>
       </c>
       <c r="I5" s="7">
-        <v>220936</v>
+        <v>233852</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1192,7 @@
         <v>697</v>
       </c>
       <c r="N5" s="7">
-        <v>422207</v>
+        <v>471308</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1213,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1243,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1266,7 @@
         <v>139</v>
       </c>
       <c r="D7" s="7">
-        <v>199530</v>
+        <v>202242</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1281,7 @@
         <v>234</v>
       </c>
       <c r="I7" s="7">
-        <v>186208</v>
+        <v>174368</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1296,7 @@
         <v>373</v>
       </c>
       <c r="N7" s="7">
-        <v>385737</v>
+        <v>376610</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1317,7 @@
         <v>242</v>
       </c>
       <c r="D8" s="7">
-        <v>318404</v>
+        <v>314872</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1332,7 @@
         <v>482</v>
       </c>
       <c r="I8" s="7">
-        <v>367571</v>
+        <v>339859</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1347,7 @@
         <v>724</v>
       </c>
       <c r="N8" s="7">
-        <v>685977</v>
+        <v>654731</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1368,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517934</v>
+        <v>517114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553779</v>
+        <v>514227</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1398,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071714</v>
+        <v>1031341</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1421,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>54685</v>
+        <v>53932</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>68024</v>
+        <v>64179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1451,7 @@
         <v>153</v>
       </c>
       <c r="N10" s="7">
-        <v>122708</v>
+        <v>118111</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1472,7 @@
         <v>298</v>
       </c>
       <c r="D11" s="7">
-        <v>265242</v>
+        <v>259905</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1487,7 @@
         <v>433</v>
       </c>
       <c r="I11" s="7">
-        <v>300387</v>
+        <v>280437</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1502,7 @@
         <v>731</v>
       </c>
       <c r="N11" s="7">
-        <v>565630</v>
+        <v>540342</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1523,7 @@
         <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>319927</v>
+        <v>313837</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1538,7 @@
         <v>527</v>
       </c>
       <c r="I12" s="7">
-        <v>368411</v>
+        <v>344616</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1553,7 @@
         <v>884</v>
       </c>
       <c r="N12" s="7">
-        <v>688338</v>
+        <v>658453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1576,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>68575</v>
+        <v>67040</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1591,7 @@
         <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>76070</v>
+        <v>125074</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1606,7 @@
         <v>140</v>
       </c>
       <c r="N13" s="7">
-        <v>144645</v>
+        <v>192114</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1627,7 @@
         <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>251329</v>
+        <v>243334</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1642,7 @@
         <v>515</v>
       </c>
       <c r="I14" s="7">
-        <v>352044</v>
+        <v>350229</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1657,7 @@
         <v>747</v>
       </c>
       <c r="N14" s="7">
-        <v>603373</v>
+        <v>593562</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1678,7 @@
         <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>319904</v>
+        <v>310374</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428114</v>
+        <v>475303</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1708,7 @@
         <v>887</v>
       </c>
       <c r="N15" s="7">
-        <v>748018</v>
+        <v>785676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1731,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>48454</v>
+        <v>44057</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,31 +1746,31 @@
         <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>40679</v>
+        <v>36717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
       </c>
       <c r="N16" s="7">
-        <v>89134</v>
+        <v>80773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1782,46 @@
         <v>210</v>
       </c>
       <c r="D17" s="7">
-        <v>148294</v>
+        <v>134685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>401</v>
       </c>
       <c r="I17" s="7">
-        <v>190817</v>
+        <v>171557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>611</v>
       </c>
       <c r="N17" s="7">
-        <v>339110</v>
+        <v>306243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1848,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1863,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1886,46 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>31328</v>
+        <v>29784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>26495</v>
+        <v>24264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>57823</v>
+        <v>54048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1937,46 @@
         <v>331</v>
       </c>
       <c r="D20" s="7">
-        <v>245483</v>
+        <v>239461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
       </c>
       <c r="I20" s="7">
-        <v>248091</v>
+        <v>231844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>752</v>
       </c>
       <c r="N20" s="7">
-        <v>493574</v>
+        <v>471305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276811</v>
+        <v>269245</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2003,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274586</v>
+        <v>256108</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2018,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551397</v>
+        <v>525353</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2041,46 @@
         <v>116</v>
       </c>
       <c r="D22" s="7">
-        <v>130475</v>
+        <v>135146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
       </c>
       <c r="I22" s="7">
-        <v>238653</v>
+        <v>323713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
       </c>
       <c r="N22" s="7">
-        <v>369128</v>
+        <v>458859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2092,46 @@
         <v>482</v>
       </c>
       <c r="D23" s="7">
-        <v>496202</v>
+        <v>488104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>806</v>
       </c>
       <c r="I23" s="7">
-        <v>563578</v>
+        <v>523692</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1288</v>
       </c>
       <c r="N23" s="7">
-        <v>1059780</v>
+        <v>1011796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2158,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>802231</v>
+        <v>847405</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2173,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1428908</v>
+        <v>1470655</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2196,46 @@
         <v>473</v>
       </c>
       <c r="D25" s="7">
-        <v>546740</v>
+        <v>664994</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>571</v>
       </c>
       <c r="I25" s="7">
-        <v>471926</v>
+        <v>390582</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1044</v>
       </c>
       <c r="N25" s="7">
-        <v>1018665</v>
+        <v>1055576</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,43 +2247,43 @@
         <v>288</v>
       </c>
       <c r="D26" s="7">
-        <v>311606</v>
+        <v>262810</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>490</v>
       </c>
       <c r="I26" s="7">
-        <v>395758</v>
+        <v>326518</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>778</v>
       </c>
       <c r="N26" s="7">
-        <v>707364</v>
+        <v>589328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>161</v>
@@ -2298,7 +2298,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858346</v>
+        <v>927804</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>867684</v>
+        <v>717100</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2328,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1726029</v>
+        <v>1644904</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,7 +2351,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="7">
-        <v>1138813</v>
+        <v>1271181</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -2366,7 +2366,7 @@
         <v>1363</v>
       </c>
       <c r="I28" s="7">
-        <v>1158521</v>
+        <v>1194680</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -2381,7 +2381,7 @@
         <v>2385</v>
       </c>
       <c r="N28" s="7">
-        <v>2297333</v>
+        <v>2465861</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
@@ -2402,7 +2402,7 @@
         <v>2344</v>
       </c>
       <c r="D29" s="7">
-        <v>2237833</v>
+        <v>2180628</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -2417,7 +2417,7 @@
         <v>3984</v>
       </c>
       <c r="I29" s="7">
-        <v>2639182</v>
+        <v>2457987</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,7 +2432,7 @@
         <v>6328</v>
       </c>
       <c r="N29" s="7">
-        <v>4877015</v>
+        <v>4638616</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2453,7 +2453,7 @@
         <v>3366</v>
       </c>
       <c r="D30" s="7">
-        <v>3376646</v>
+        <v>3451809</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2468,7 @@
         <v>5347</v>
       </c>
       <c r="I30" s="7">
-        <v>3797703</v>
+        <v>3652667</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>8713</v>
       </c>
       <c r="N30" s="7">
-        <v>7174348</v>
+        <v>7104477</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
